--- a/Group Assignments/STOR320.001 Group Assignments.xlsx
+++ b/Group Assignments/STOR320.001 Group Assignments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 320\STOR320_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA213FF-0651-43F3-8EF1-BF6A2DBBD7E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C2DB8-4C4A-4785-A15F-3F85C009A3C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12950" windowHeight="6790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STOR320.001 Group Assignments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="111">
   <si>
     <t>Name</t>
   </si>
@@ -341,6 +341,18 @@
   </si>
   <si>
     <t>Pierce, Victoria</t>
+  </si>
+  <si>
+    <t>2:00PM - 2:05PM</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>1:30PM - 1:35PM</t>
+  </si>
+  <si>
+    <t>2:30PM - 2:35PM</t>
   </si>
 </sst>
 </file>
@@ -824,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -837,6 +849,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1212,7 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2090,6 +2105,12 @@
       <c r="C72" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D72" s="6">
+        <v>43515</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
@@ -2101,6 +2122,12 @@
       <c r="C73" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D73" s="6">
+        <v>43515</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -2110,7 +2137,13 @@
         <v>15</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D74" s="6">
+        <v>43515</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2123,6 +2156,12 @@
       <c r="C75" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D75" s="6">
+        <v>43515</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
@@ -2639,6 +2678,12 @@
       <c r="C117" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D117" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
@@ -2648,7 +2693,13 @@
         <v>24</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D118" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -2661,6 +2712,12 @@
       <c r="C119" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D119" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
@@ -2672,6 +2729,12 @@
       <c r="C120" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D120" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
@@ -2700,6 +2763,12 @@
       <c r="C122" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D122" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
@@ -2711,6 +2780,12 @@
       <c r="C123" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D123" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
@@ -2720,7 +2795,13 @@
         <v>25</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D124" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -2733,6 +2814,12 @@
       <c r="C125" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D125" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
@@ -2743,6 +2830,12 @@
       </c>
       <c r="C126" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="D126" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Group Assignments/STOR320.001 Group Assignments.xlsx
+++ b/Group Assignments/STOR320.001 Group Assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 320\STOR320_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C2DB8-4C4A-4785-A15F-3F85C009A3C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA32C1F-47B4-4EEA-B686-79189717E000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STOR320.001 Group Assignments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>2:30PM - 2:35PM</t>
+  </si>
+  <si>
+    <t>1:40PM -  1:45PM</t>
+  </si>
+  <si>
+    <t>1:45PM - 1:50PM</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,6 +1257,12 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1262,6 +1274,12 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1271,7 +1289,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1284,6 +1308,12 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -2554,7 +2584,13 @@
         <v>22</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D107" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -2567,6 +2603,12 @@
       <c r="C108" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D108" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -2578,6 +2620,12 @@
       <c r="C109" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D109" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -2588,6 +2636,12 @@
       </c>
       <c r="C110" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="D110" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">

--- a/Group Assignments/STOR320.001 Group Assignments.xlsx
+++ b/Group Assignments/STOR320.001 Group Assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 320\STOR320_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA32C1F-47B4-4EEA-B686-79189717E000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9948BBCD-B17B-46E1-ADA5-214070567B70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11290" yWindow="5260" windowWidth="12800" windowHeight="6770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STOR320.001 Group Assignments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>1:45PM - 1:50PM</t>
+  </si>
+  <si>
+    <t>2:25PM - 2:30PM</t>
+  </si>
+  <si>
+    <t>2:40PM - 2:45PM</t>
   </si>
 </sst>
 </file>
@@ -1217,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1706,7 +1712,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D37" s="6">
+        <v>43515</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1719,6 +1731,12 @@
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D38" s="6">
+        <v>43515</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -1730,6 +1748,12 @@
       <c r="C39" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D39" s="6">
+        <v>43515</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -1741,6 +1765,12 @@
       <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D40" s="6">
+        <v>43515</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
@@ -1767,7 +1797,13 @@
         <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D42" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1780,6 +1816,12 @@
       <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D43" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -1791,6 +1833,12 @@
       <c r="C44" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D44" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -1802,6 +1850,12 @@
       <c r="C45" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D45" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
@@ -1952,6 +2006,12 @@
       <c r="C57" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D57" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -1961,7 +2021,13 @@
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D58" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -1974,6 +2040,12 @@
       <c r="C59" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D59" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -1985,6 +2057,12 @@
       <c r="C60" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D60" s="6">
+        <v>43517</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
@@ -2403,6 +2481,12 @@
       <c r="C92" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D92" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
@@ -2414,6 +2498,12 @@
       <c r="C93" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D93" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
@@ -2425,6 +2515,12 @@
       <c r="C94" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D94" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
@@ -2434,7 +2530,13 @@
         <v>19</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D95" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2464,6 +2566,12 @@
       <c r="C97" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D97" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
@@ -2473,7 +2581,13 @@
         <v>20</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D98" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2486,6 +2600,12 @@
       <c r="C99" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D99" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
@@ -2496,6 +2616,12 @@
       </c>
       <c r="C100" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="D100" s="6">
+        <v>43524</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
